--- a/docs/Пример 2/send_list.xlsx
+++ b/docs/Пример 2/send_list.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9405" windowWidth="22695" xWindow="630" yWindow="600"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -859,7 +859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1490,6 +1490,9 @@
       </c>
     </row>
     <row r="5" spans="1:47">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
       <c r="B5" t="s">
         <v>74</v>
       </c>
@@ -1639,6 +1642,9 @@
       </c>
     </row>
     <row r="6" spans="1:47">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
@@ -1785,6 +1791,9 @@
       </c>
     </row>
     <row r="7" spans="1:47">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
@@ -2080,6 +2089,9 @@
       </c>
     </row>
     <row r="9" spans="1:47">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
       <c r="B9" t="s">
         <v>74</v>
       </c>
@@ -2229,6 +2241,9 @@
       </c>
     </row>
     <row r="10" spans="1:47">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
@@ -6362,7 +6377,7 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
